--- a/release/web/resources/datatables/AssetsPath.xlsx
+++ b/release/web/resources/datatables/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73333CCF-C396-4E04-A349-542E85D1E697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97C227D-0B52-451C-9219-19206362B55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="5715" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="184">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AssetPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,15 +55,698 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assets/scene/GameEntry.ls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GameEntry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>初始场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行预加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseSimplified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简体中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\scene\GameEntry.ls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\scene\GameScene.ls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\localization\ChineseSimplified\Default.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\localization\English\Default.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebugView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TipsView</t>
+  </si>
+  <si>
+    <t>SureView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompleteView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LanguageView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelUpView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoseView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuckyBoxView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyInfoView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PauseView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrivacyAgreementView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RankingView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SettingView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignInView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运宝箱界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停界面</t>
+  </si>
+  <si>
+    <t>隐私协议界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到界面</t>
+  </si>
+  <si>
+    <t>assets\resources\prefab\DebugView.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\prefab\Toggle.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\Slider.lh</t>
+  </si>
+  <si>
+    <t>assets\resources\prefab\TipsView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\SureView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\LoadView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\CompleteView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\GameView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\LanguageView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\LevelUpView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\LoseView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\LuckyBoxView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\MainView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\MyInfoView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\PauseView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\PrivacyAgreementView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\RankingView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\SettingView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\ShopView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\SignInView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d图片资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseSimplifiedFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnglishFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luckybox_bronze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luckybox_silver</t>
+  </si>
+  <si>
+    <t>luckybox_gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luckybox_diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luckybox_platinum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_rank_gd</t>
+  </si>
+  <si>
+    <t>icon_rank_sv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_rank_bz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_rank_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国国旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国国旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜宝箱</t>
+  </si>
+  <si>
+    <t>白银宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白金宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三名</t>
+  </si>
+  <si>
+    <t>其他名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\languageview\language_chn.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\languageview\language_eng.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\luckyboxview\luckybox_bronze.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\luckyboxview\luckybox_silver.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\luckyboxview\luckybox_gold.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\luckyboxview\luckybox_diamond.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\luckyboxview\luckybox_platinum.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\rankingview\icon_rank_gd.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\rankingview\icon_rank_sv.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\rankingview\icon_rank_bz.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\rankingview\icon_rank_default.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuckyBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运宝箱配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\LuckyBox.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Localization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地化配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Localization.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内隐私协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\text\PrivacyAgreement.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrivacyAgreement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_reward_coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_reward_gem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_reward_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_reward_soulgem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂钻图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\common\icon_reward_coin.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\common\icon_reward_gem.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\common\icon_reward_key.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\common\icon_reward_soulgem.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Currency.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Level.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钞票美元图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\common\icon_reward_dollar.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_reward_dollar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_coin_01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_coin_02.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_coin_03.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_coin_04.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_gem_01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_gem_02.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_gem_03.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_gem_04.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_img_coin_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_img_coin_03</t>
+  </si>
+  <si>
+    <t>shop_img_coin_04</t>
+  </si>
+  <si>
+    <t>shop_img_gem_03</t>
+  </si>
+  <si>
+    <t>shop_img_gem_04</t>
+  </si>
+  <si>
+    <t>shop_img_coin_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_img_gem_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_img_gem_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Shop.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Ranking.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\scene\MainScene.ls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,19 +1072,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -421,44 +1103,1064 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>501</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>502</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1003</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1004</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1005</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1006</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1007</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1008</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1009</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1010</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1011</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1012</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1013</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1014</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1015</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1016</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1017</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1018</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1019</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1020</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>2001</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>2002</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>2003</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>2004</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>2005</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>2006</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>2007</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>2008</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2009</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>2010</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>2011</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>2012</v>
+      </c>
+      <c r="C44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>2013</v>
+      </c>
+      <c r="C45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>2014</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>2015</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>2016</v>
+      </c>
+      <c r="C48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>2017</v>
+      </c>
+      <c r="C49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>2018</v>
+      </c>
+      <c r="C50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" t="s">
+        <v>158</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>2019</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>2020</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>2021</v>
+      </c>
+      <c r="C53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>2022</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>2023</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>2024</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>3001</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>3002</v>
+      </c>
+      <c r="C59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>3003</v>
+      </c>
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>3004</v>
+      </c>
+      <c r="C61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" t="s">
+        <v>153</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>3005</v>
+      </c>
+      <c r="C62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" t="s">
+        <v>176</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>3006</v>
+      </c>
+      <c r="C63" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" t="s">
+        <v>179</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>4001</v>
+      </c>
+      <c r="C65" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>5001</v>
+      </c>
+      <c r="C67" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" t="s">
+        <v>181</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
